--- a/01-beginner/064-stacking.xlsx
+++ b/01-beginner/064-stacking.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stacking" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,6 +71,164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BECD06-A6D8-412F-BE01-336F1D00E8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="485775"/>
+          <a:ext cx="4552949" cy="3414712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648442AF-5BFA-49C1-AD9C-577D4577EBB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="328612" y="1547813"/>
+          <a:ext cx="4605338" cy="3373050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2893381-BA5A-4319-A40F-BBED4DF196DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376737" y="3157538"/>
+          <a:ext cx="3810000" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +528,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>